--- a/biology/Zoologie/Colombine_d'Étienne/Colombine_d'Étienne.xlsx
+++ b/biology/Zoologie/Colombine_d'Étienne/Colombine_d'Étienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalcophaps stephani
 La Colombine d'Étienne (Chalcophaps stephani) est une espèce d'oiseaux appartenant à la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 24 à 25 cm pour une masse de 120 à 130 g.
 Il a le dos et les épaules brun rouge, les ailes vertes et la queue brune. Le front est marqué d'une tache blanche chez le mâle et grise chez la femelle. Les iris sont brun foncé. Le bec est rouge orangé. Les pattes sont rouge pourpre.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se rencontre en Indonésie, en Papouasie-Nouvelle-Guinée et aux Salomon.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts intérieures humides sempervirentes et les forêts littorales plus sèches, les lisières et les plaines. Il est répandu jusqu'à 700 m d'altitude et plus exceptionnellement jusqu'à 1 200 m.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau s'alimente surtout au sol de graines, de fruits et de quelques invertébrés.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre le plus souvent seule, parfois en couples ou en petits groupes.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est souvent construit près du sol. Il est constitué de brindilles surmontées de feuilles mortes et de divers débris végétaux. La femelle y pond deux œufs de couleur crème. L'incubation dure 14 à 16 jours.
 </t>
@@ -681,7 +705,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colombine_d%27%C3%89tienne</t>
+          <t>Colombine_d'Étienne</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,7 +723,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par trois sous-espèces :
 Chalcophaps stephani mortoni Ramsay, 1882 des îles Salomon ;
